--- a/data/outputs/management_elsevier/17.xlsx
+++ b/data/outputs/management_elsevier/17.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BU64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +937,12 @@
           <t>2-s2.0-84930645498</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2722</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1140,6 +1156,12 @@
           <t>2-s2.0-84930638364</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>2895</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1371,12 @@
           <t>2-s2.0-84930938558</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>3204</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84934888371</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2352</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1775,6 +1809,12 @@
           <t>2-s2.0-84934903853</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1669</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1980,6 +2020,12 @@
           <t>2-s2.0-84937891278</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>950</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2193,6 +2239,12 @@
           <t>2-s2.0-84937892466</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>843</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2408,6 +2460,12 @@
           <t>2-s2.0-84938283333</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1492</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2621,6 +2679,12 @@
           <t>2-s2.0-84938250519</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>2851</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2834,6 +2898,12 @@
           <t>2-s2.0-84939512312</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>2634</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3039,6 +3109,12 @@
           <t>2-s2.0-84938687141</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>770</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3248,6 +3324,12 @@
           <t>2-s2.0-84938698881</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3457,6 +3539,12 @@
           <t>2-s2.0-84938693211</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2186</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3676,6 +3764,12 @@
           <t>2-s2.0-84939195366</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2156</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3889,6 +3983,12 @@
           <t>2-s2.0-84938895427</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>3191</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4098,6 +4198,12 @@
           <t>2-s2.0-84939425398</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>1206</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4303,6 +4409,12 @@
           <t>2-s2.0-84939474621</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>3081</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4516,6 +4628,12 @@
           <t>2-s2.0-84939537793</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2587</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4729,6 +4847,12 @@
           <t>2-s2.0-84939525186</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2873</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4950,6 +5074,12 @@
           <t>2-s2.0-84939502084</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>2413</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5159,6 +5289,12 @@
           <t>2-s2.0-84940108035</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>6732</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5368,6 +5504,12 @@
           <t>2-s2.0-84939620794</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2788</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5575,6 +5717,12 @@
           <t>2-s2.0-84940667661</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>2417</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5784,6 +5932,12 @@
           <t>2-s2.0-84940530614</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1301</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5997,6 +6151,12 @@
           <t>2-s2.0-84940536236</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>2068</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6210,6 +6370,12 @@
           <t>2-s2.0-84940544856</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1711</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6419,6 +6585,12 @@
           <t>2-s2.0-84940477997</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1997</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6627,6 +6799,12 @@
         <is>
           <t>2-s2.0-84942123047</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>2895</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -6831,6 +7009,12 @@
           <t>2-s2.0-84942245668</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>2851</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7044,6 +7228,12 @@
           <t>2-s2.0-84942256704</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>5116</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7257,6 +7447,12 @@
           <t>2-s2.0-84943266594</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2933</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7468,6 +7664,12 @@
           <t>2-s2.0-84943260185</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1118</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7673,6 +7875,12 @@
           <t>2-s2.0-84943225691</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>3164</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7886,6 +8094,12 @@
           <t>2-s2.0-84944077520</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>3715</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8103,6 +8317,12 @@
           <t>2-s2.0-84944042295</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2821</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8324,6 +8544,12 @@
           <t>2-s2.0-84944072603</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>3561</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8533,6 +8759,12 @@
           <t>2-s2.0-84944037198</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>1577</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8746,6 +8978,12 @@
           <t>2-s2.0-84945181732</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1620</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8955,6 +9193,12 @@
           <t>2-s2.0-84938525018</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>2574</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9182,6 +9426,12 @@
           <t>2-s2.0-84936932035</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1839</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9391,6 +9641,12 @@
           <t>2-s2.0-84961302400</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>2461</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9604,6 +9860,12 @@
           <t>2-s2.0-84940364644</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>4795</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9813,6 +10075,12 @@
           <t>2-s2.0-84926196623</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1924</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10018,6 +10286,12 @@
           <t>2-s2.0-84926489934</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>1516</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10235,6 +10509,12 @@
           <t>2-s2.0-84927666752</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2449</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10440,6 +10720,12 @@
           <t>2-s2.0-84927594897</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>1144</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10645,6 +10931,12 @@
           <t>2-s2.0-84928107817</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>1444</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10850,6 +11142,12 @@
           <t>2-s2.0-84936936664</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>4384</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11055,6 +11353,12 @@
           <t>2-s2.0-84936937729</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2125</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11268,6 +11572,12 @@
           <t>2-s2.0-84936937896</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>3437</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11473,6 +11783,12 @@
           <t>2-s2.0-84936938156</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>2090</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11686,6 +12002,12 @@
           <t>2-s2.0-84921471655</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>6395</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11893,6 +12215,12 @@
           <t>2-s2.0-84921978430</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>11095</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12114,6 +12442,12 @@
           <t>2-s2.0-84923365430</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>4709</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12319,6 +12653,12 @@
           <t>2-s2.0-84923546494</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>2156</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12532,6 +12872,12 @@
           <t>2-s2.0-84924762781</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1696</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12743,6 +13089,12 @@
           <t>2-s2.0-84924811932</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>2217</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12948,6 +13300,12 @@
           <t>2-s2.0-84924872320</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>1158</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13161,6 +13519,12 @@
           <t>2-s2.0-84909633064</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>1421</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13368,6 +13732,12 @@
           <t>2-s2.0-84910003737</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>3787</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13573,6 +13943,12 @@
           <t>2-s2.0-84912023134</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>3187</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13782,6 +14158,12 @@
           <t>2-s2.0-84912094894</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>12005</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13987,6 +14369,12 @@
           <t>2-s2.0-84918578050</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>4001</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
